--- a/biology/Botanique/Hippolyte_Jamain_(rose)/Hippolyte_Jamain_(rose).xlsx
+++ b/biology/Botanique/Hippolyte_Jamain_(rose)/Hippolyte_Jamain_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Hippolyte Jamain' est un cultivar de rosier obtenu par le rosiériste français Lacharme en 1874. Il rend hommage à l'obtenteur et horticulteur parisien Hippolyte Jamain (1818-1884). Il est issu d'un semis de 'Victor Verdier' (Lacharme, 1859).
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs d'un rose profond aux nuances carmin[1], très doubles en forme de coupe[2]. Sa floraison est remontante.
-Son buisson érigé s'élève à 150 cm pour une largeur de 90 cm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs d'un rose profond aux nuances carmin, très doubles en forme de coupe. Sa floraison est remontante.
+Son buisson érigé s'élève à 150 cm pour une largeur de 90 cm.
 Sa zone de rusticité est de 6b à 9b ; il résiste donc aux hivers rigoureux.
 On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen. Cette rose a connu un certain succès sous la Troisième République par son coloris subtil, son aspect chiffonné et son parfum délicat.
 </t>
